--- a/eagle/fp_binding_posts/js220_fp_binding_posts_bom.xlsx
+++ b/eagle/fp_binding_posts/js220_fp_binding_posts_bom.xlsx
@@ -600,7 +600,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2022 February 17</t>
+          <t>2022 February 25</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>TSM-105-01-L-SV-A</t>
+          <t>TSM-103-01-S-DV-A</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2022 February 17</t>
+          <t>2022 February 25</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>TSM-105-01-L-SV-A</t>
+          <t>TSM-103-01-S-DV-A</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2022 February 17</t>
+          <t>2022 February 25</t>
         </is>
       </c>
     </row>

--- a/eagle/fp_binding_posts/js220_fp_binding_posts_bom.xlsx
+++ b/eagle/fp_binding_posts/js220_fp_binding_posts_bom.xlsx
@@ -600,7 +600,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2022 February 25</t>
+          <t>2022 June 16</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>Mfgr Part #</t>
+          <t>Name</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>JS220_fp_bp_pcb_revB</t>
+          <t>JS220_fp_binding_post_pcb_revC</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2022 February 25</t>
+          <t>2022 June 16</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>Mfgr Part #</t>
+          <t>Name</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>JS220_fp_bp_pcb_revB</t>
+          <t>JS220_fp_binding_post_pcb_revC</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2022 February 25</t>
+          <t>2022 June 16</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>Mfgr Part #</t>
+          <t>Name</t>
         </is>
       </c>
     </row>
